--- a/biology/Zoologie/Diadophis_punctatus/Diadophis_punctatus.xlsx
+++ b/biology/Zoologie/Diadophis_punctatus/Diadophis_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diadophis punctatus, la Couleuvre à collier américaine, unique représentant du genre Diadophis, est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diadophis punctatus, la Couleuvre à collier américaine, unique représentant du genre Diadophis, est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, aux États-Unis et dans le sud-est du Canada[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, aux États-Unis et dans le sud-est du Canada. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut atteindre 25 à 35 cm de long en moyenne. La couleur de son corps varie du gris au noir, avec un collier jaune vif qui lui donne son nom. Son ventre est jaune ou orange. 
 La femelle cache ses œufs blancs tirant sur le jaune dans un lieu humide. Souvent plusieurs femelles pondent leurs œufs au même endroit. 
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 août 2013) :
 Diadophis punctatus acricus Paulson, 1966
 Diadophis punctatus amabilis Baird &amp; Girard, 1853
 Diadophis punctatus arnyi Kennicott, 1859
@@ -619,7 +637,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1853 : Catalogue of North American Reptiles in the Museum of the Smithsonian Institution. Part 1. Serpents. Smithsonian Institution, Washington, p. 1-172 (texte intégral).
 Blanchard, 1923 : Comments on ring-neck snakes (Genus Diadophis), with diagnoses of new forms. Occasional Papers of the Museum of Zoology, University of Michigan, no 142, p. 1-9 (texte intégral).
